--- a/data/trans_orig/P04C04_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Clase-trans_orig.xlsx
@@ -2998,7 +2998,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
